--- a/data/trans_orig/P16B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09BAB60-0D12-4DE0-9C3A-30BDE7594FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73DD258E-3F91-4515-B315-715470D27969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1EF5DD78-B3E4-4049-9FFD-BD5F9FBC9A93}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{795F7D1C-9043-4761-937B-2F473ADDB99A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="177">
   <si>
     <t>Porcentajes de antibióticos recetados en 2007 (Tasa respuesta: 2,04%)</t>
   </si>
@@ -76,16 +76,16 @@
     <t>91,89%</t>
   </si>
   <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>92,81%</t>
   </si>
   <si>
-    <t>76,46%</t>
+    <t>77,52%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,10 +94,10 @@
     <t>92,36%</t>
   </si>
   <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,10 +106,10 @@
     <t>8,11%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
   </si>
   <si>
     <t>7,19%</t>
@@ -118,16 +118,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>23,54%</t>
+    <t>22,48%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -142,13 +142,13 @@
     <t>96,74%</t>
   </si>
   <si>
-    <t>86,16%</t>
+    <t>83,33%</t>
   </si>
   <si>
     <t>97,98%</t>
   </si>
   <si>
-    <t>91,61%</t>
+    <t>87,88%</t>
   </si>
   <si>
     <t>0%</t>
@@ -160,13 +160,13 @@
     <t>3,26%</t>
   </si>
   <si>
-    <t>13,84%</t>
+    <t>16,67%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>8,39%</t>
+    <t>12,12%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -193,229 +193,235 @@
     <t>95,52%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>85,91%</t>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>89,62%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de antibióticos recetados en 2012 (Tasa respuesta: 2,69%)</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de antibióticos recetados en 2012 (Tasa respuesta: 2,69%)</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>11,54%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>Porcentajes de antibióticos recetados en 2015 (Tasa respuesta: 2,07%)</t>
@@ -436,133 +442,133 @@
     <t>97,69%</t>
   </si>
   <si>
-    <t>88,22%</t>
+    <t>87,54%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>87,24%</t>
+    <t>89,49%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>91,95%</t>
+    <t>92,61%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>11,78%</t>
+    <t>12,46%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>12,76%</t>
+    <t>10,51%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>8,05%</t>
+    <t>7,39%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>50,74%</t>
+    <t>56,06%</t>
   </si>
   <si>
     <t>81,53%</t>
   </si>
   <si>
-    <t>49,28%</t>
+    <t>47,05%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>49,26%</t>
+    <t>43,94%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>50,72%</t>
+    <t>52,95%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
 </sst>
 </file>
@@ -974,7 +980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17385E2-A6FE-40DB-B758-44BB075399E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C175BC-548E-42D4-8FA4-01C5C87C2DC4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1584,7 +1590,7 @@
         <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -1593,13 +1599,13 @@
         <v>127249</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1620,13 @@
         <v>2628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1629,13 +1635,13 @@
         <v>3574</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -1644,13 +1650,13 @@
         <v>6203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,7 +1712,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1725,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2223E74-DC1F-4982-8260-6E8DC43B95F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A20954-89AF-48C7-98F8-90C5EEE38684}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1742,7 +1748,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1849,10 +1855,10 @@
         <v>32073</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -1864,10 +1870,10 @@
         <v>33562</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -1879,10 +1885,10 @@
         <v>65635</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -1900,13 +1906,13 @@
         <v>983</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1915,13 +1921,13 @@
         <v>1866</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -1930,13 +1936,13 @@
         <v>2850</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,13 +2010,13 @@
         <v>42430</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -2019,10 +2025,10 @@
         <v>57090</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -2034,13 +2040,13 @@
         <v>99520</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2061,13 @@
         <v>12080</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2070,13 +2076,13 @@
         <v>1945</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -2085,13 +2091,13 @@
         <v>14025</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,10 +2165,10 @@
         <v>6386</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2174,10 +2180,10 @@
         <v>5907</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -2189,10 +2195,10 @@
         <v>12293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2210,13 +2216,13 @@
         <v>987</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2225,13 +2231,13 @@
         <v>947</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2240,13 +2246,13 @@
         <v>1934</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,13 +2320,13 @@
         <v>80888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -2329,13 +2335,13 @@
         <v>96559</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -2344,13 +2350,13 @@
         <v>177448</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2371,13 @@
         <v>14051</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2380,13 +2386,13 @@
         <v>4759</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -2395,13 +2401,13 @@
         <v>18809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,7 +2463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2476,7 +2482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A81BA6-4FD1-4514-9DF2-105618B521DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186FB128-B4D8-48F5-A90D-25F37D276A10}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2493,7 +2499,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2618,7 +2624,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>30</v>
@@ -2633,7 +2639,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>30</v>
@@ -2672,7 +2678,7 @@
         <v>37</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2687,7 +2693,7 @@
         <v>37</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,10 +2761,10 @@
         <v>44611</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -2770,10 +2776,10 @@
         <v>39061</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -2785,10 +2791,10 @@
         <v>83672</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -2806,13 +2812,13 @@
         <v>1055</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2821,13 +2827,13 @@
         <v>1006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2836,13 +2842,13 @@
         <v>2061</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,10 +2916,10 @@
         <v>10914</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2925,10 +2931,10 @@
         <v>11959</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -2940,13 +2946,13 @@
         <v>22873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,13 +2967,13 @@
         <v>2231</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2976,13 +2982,13 @@
         <v>2709</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2991,13 +2997,13 @@
         <v>4940</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3071,13 @@
         <v>64832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -3080,13 +3086,13 @@
         <v>73738</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
@@ -3095,13 +3101,13 @@
         <v>138570</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3122,13 @@
         <v>3286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3131,13 +3137,13 @@
         <v>3715</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3146,13 +3152,13 @@
         <v>7001</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,7 +3214,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73DD258E-3F91-4515-B315-715470D27969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A05E661-6CC0-49AC-84E3-128B169DB649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{795F7D1C-9043-4761-937B-2F473ADDB99A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BAA29F7E-7402-437B-B37D-7866A8F8F1E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,16 +76,16 @@
     <t>91,89%</t>
   </si>
   <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>92,81%</t>
   </si>
   <si>
-    <t>77,52%</t>
+    <t>77,23%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,10 +94,10 @@
     <t>92,36%</t>
   </si>
   <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,10 +106,10 @@
     <t>8,11%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>7,19%</t>
@@ -118,16 +118,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,48%</t>
+    <t>22,77%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -142,13 +142,13 @@
     <t>96,74%</t>
   </si>
   <si>
-    <t>83,33%</t>
+    <t>82,23%</t>
   </si>
   <si>
     <t>97,98%</t>
   </si>
   <si>
-    <t>87,88%</t>
+    <t>90,28%</t>
   </si>
   <si>
     <t>0%</t>
@@ -160,13 +160,13 @@
     <t>3,26%</t>
   </si>
   <si>
-    <t>16,67%</t>
+    <t>17,77%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>12,12%</t>
+    <t>9,72%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -193,55 +193,55 @@
     <t>95,52%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -253,178 +253,178 @@
     <t>97,03%</t>
   </si>
   <si>
-    <t>86,51%</t>
+    <t>87,41%</t>
   </si>
   <si>
     <t>94,73%</t>
   </si>
   <si>
-    <t>73,53%</t>
+    <t>74,34%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>86,56%</t>
+    <t>85,52%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>13,49%</t>
+    <t>12,59%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>26,47%</t>
+    <t>25,66%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>13,44%</t>
+    <t>14,48%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>89,23%</t>
+    <t>88,97%</t>
   </si>
   <si>
     <t>87,65%</t>
   </si>
   <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>10,77%</t>
+    <t>11,03%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
   </si>
   <si>
     <t>86,61%</t>
   </si>
   <si>
-    <t>34,87%</t>
+    <t>34,52%</t>
   </si>
   <si>
     <t>86,18%</t>
   </si>
   <si>
-    <t>36,38%</t>
+    <t>48,67%</t>
   </si>
   <si>
     <t>86,4%</t>
   </si>
   <si>
-    <t>60,82%</t>
+    <t>58,71%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>65,13%</t>
+    <t>65,48%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>63,62%</t>
+    <t>51,33%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>39,18%</t>
+    <t>41,29%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>Porcentajes de antibióticos recetados en 2015 (Tasa respuesta: 2,07%)</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>Porcentajes de antibióticos recetados en 2016 (Tasa respuesta: 2,07%)</t>
   </si>
   <si>
     <t>90,95%</t>
@@ -442,85 +442,85 @@
     <t>97,69%</t>
   </si>
   <si>
-    <t>87,54%</t>
+    <t>88,25%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>89,49%</t>
+    <t>87,25%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>92,61%</t>
+    <t>91,6%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>12,46%</t>
+    <t>11,75%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>10,51%</t>
+    <t>12,75%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>7,39%</t>
+    <t>8,4%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>56,06%</t>
+    <t>54,14%</t>
   </si>
   <si>
     <t>81,53%</t>
   </si>
   <si>
-    <t>47,05%</t>
+    <t>51,42%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>43,94%</t>
+    <t>45,86%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>52,95%</t>
+    <t>48,58%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>86,63%</t>
+    <t>87,13%</t>
   </si>
   <si>
     <t>98,48%</t>
@@ -529,19 +529,19 @@
     <t>95,2%</t>
   </si>
   <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>4,82%</t>
@@ -550,25 +550,25 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>13,37%</t>
+    <t>12,87%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
 </sst>
 </file>
@@ -980,7 +980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C175BC-548E-42D4-8FA4-01C5C87C2DC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB804D87-3899-4DC2-9782-AC453CCED62F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1731,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A20954-89AF-48C7-98F8-90C5EEE38684}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728C1843-AD1A-4F6E-930B-97E1EDEDB46E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2482,7 +2482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186FB128-B4D8-48F5-A90D-25F37D276A10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66435990-5016-4BE0-A210-B4090447810C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A05E661-6CC0-49AC-84E3-128B169DB649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA146955-73EA-4E42-AE3D-E04A9FDBA7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BAA29F7E-7402-437B-B37D-7866A8F8F1E4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BB39048-9F1C-40F4-9C85-0A0BF086CF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="175">
   <si>
     <t>Porcentajes de antibióticos recetados en 2007 (Tasa respuesta: 2,04%)</t>
   </si>
@@ -70,22 +70,22 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>91,89%</t>
   </si>
   <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>92,81%</t>
   </si>
   <si>
-    <t>77,23%</t>
+    <t>76,46%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,10 +94,10 @@
     <t>92,36%</t>
   </si>
   <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,10 +106,10 @@
     <t>8,11%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
   </si>
   <si>
     <t>7,19%</t>
@@ -118,16 +118,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,77%</t>
+    <t>23,54%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -142,13 +142,13 @@
     <t>96,74%</t>
   </si>
   <si>
-    <t>82,23%</t>
+    <t>86,16%</t>
   </si>
   <si>
     <t>97,98%</t>
   </si>
   <si>
-    <t>90,28%</t>
+    <t>91,61%</t>
   </si>
   <si>
     <t>0%</t>
@@ -160,13 +160,13 @@
     <t>3,26%</t>
   </si>
   <si>
-    <t>17,77%</t>
+    <t>13,84%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>9,72%</t>
+    <t>8,39%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -193,55 +193,49 @@
     <t>95,52%</t>
   </si>
   <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>85,91%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>14,09%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -253,91 +247,91 @@
     <t>97,03%</t>
   </si>
   <si>
-    <t>87,41%</t>
+    <t>84,12%</t>
   </si>
   <si>
     <t>94,73%</t>
   </si>
   <si>
-    <t>74,34%</t>
+    <t>74,21%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>85,52%</t>
+    <t>85,78%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>12,59%</t>
+    <t>15,88%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>25,66%</t>
+    <t>25,79%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>14,48%</t>
+    <t>14,22%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>88,97%</t>
+    <t>90,2%</t>
   </si>
   <si>
     <t>87,65%</t>
   </si>
   <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>11,03%</t>
+    <t>9,8%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
   </si>
   <si>
     <t>86,61%</t>
   </si>
   <si>
-    <t>34,52%</t>
+    <t>33,98%</t>
   </si>
   <si>
     <t>86,18%</t>
@@ -349,13 +343,13 @@
     <t>86,4%</t>
   </si>
   <si>
-    <t>58,71%</t>
+    <t>60,64%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>65,48%</t>
+    <t>66,02%</t>
   </si>
   <si>
     <t>13,82%</t>
@@ -367,61 +361,61 @@
     <t>13,6%</t>
   </si>
   <si>
-    <t>41,29%</t>
+    <t>39,36%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>Porcentajes de antibióticos recetados en 2016 (Tasa respuesta: 2,07%)</t>
@@ -442,133 +436,133 @@
     <t>97,69%</t>
   </si>
   <si>
-    <t>88,25%</t>
+    <t>88,22%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>87,25%</t>
+    <t>87,24%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>91,6%</t>
+    <t>91,95%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>11,75%</t>
+    <t>11,78%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>12,75%</t>
+    <t>12,76%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>8,4%</t>
+    <t>8,05%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>54,14%</t>
+    <t>50,74%</t>
   </si>
   <si>
     <t>81,53%</t>
   </si>
   <si>
-    <t>51,42%</t>
+    <t>49,28%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>45,86%</t>
+    <t>49,26%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>48,58%</t>
+    <t>50,72%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
 </sst>
 </file>
@@ -980,7 +974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB804D87-3899-4DC2-9782-AC453CCED62F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951294E8-B803-4A18-B6E7-C99CD835E2F9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1590,7 +1584,7 @@
         <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -1599,13 +1593,13 @@
         <v>127249</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1614,13 @@
         <v>2628</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1635,13 +1629,13 @@
         <v>3574</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -1650,13 +1644,13 @@
         <v>6203</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,7 +1706,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728C1843-AD1A-4F6E-930B-97E1EDEDB46E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DA12D3-816C-496A-9B6D-6131D7E2F2DC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1748,7 +1742,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1855,10 +1849,10 @@
         <v>32073</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -1870,10 +1864,10 @@
         <v>33562</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -1885,10 +1879,10 @@
         <v>65635</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -1906,13 +1900,13 @@
         <v>983</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1921,13 +1915,13 @@
         <v>1866</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -1936,13 +1930,13 @@
         <v>2850</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,13 +2004,13 @@
         <v>42430</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -2025,10 +2019,10 @@
         <v>57090</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -2040,13 +2034,13 @@
         <v>99520</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,13 +2055,13 @@
         <v>12080</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2076,13 +2070,13 @@
         <v>1945</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -2091,13 +2085,13 @@
         <v>14025</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,10 +2159,10 @@
         <v>6386</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2180,10 +2174,10 @@
         <v>5907</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -2195,10 +2189,10 @@
         <v>12293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2216,13 +2210,13 @@
         <v>987</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2231,13 +2225,13 @@
         <v>947</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2246,13 +2240,13 @@
         <v>1934</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2314,13 @@
         <v>80888</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -2335,13 +2329,13 @@
         <v>96559</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -2350,13 +2344,13 @@
         <v>177448</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2365,13 @@
         <v>14051</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2386,13 +2380,13 @@
         <v>4759</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -2401,13 +2395,13 @@
         <v>18809</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2457,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2482,7 +2476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66435990-5016-4BE0-A210-B4090447810C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6537AE-C2E3-4D4C-B576-77B2BD76F82C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2499,7 +2493,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2624,7 +2618,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>30</v>
@@ -2639,7 +2633,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>30</v>
@@ -2678,7 +2672,7 @@
         <v>37</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2693,7 +2687,7 @@
         <v>37</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,10 +2755,10 @@
         <v>44611</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -2776,10 +2770,10 @@
         <v>39061</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -2791,10 +2785,10 @@
         <v>83672</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -2812,13 +2806,13 @@
         <v>1055</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2827,13 +2821,13 @@
         <v>1006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2842,13 +2836,13 @@
         <v>2061</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,10 +2910,10 @@
         <v>10914</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2931,10 +2925,10 @@
         <v>11959</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -2946,13 +2940,13 @@
         <v>22873</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +2961,13 @@
         <v>2231</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2982,13 +2976,13 @@
         <v>2709</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2997,13 +2991,13 @@
         <v>4940</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3065,13 @@
         <v>64832</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -3086,13 +3080,13 @@
         <v>73738</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
@@ -3101,13 +3095,13 @@
         <v>138570</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3116,13 @@
         <v>3286</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3137,13 +3131,13 @@
         <v>3715</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3152,13 +3146,13 @@
         <v>7001</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,7 +3208,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA146955-73EA-4E42-AE3D-E04A9FDBA7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1722339-6563-4148-9646-852761ED9CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BB39048-9F1C-40F4-9C85-0A0BF086CF4B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1186D14F-2830-49C0-B650-B01CB6C10960}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -974,7 +974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951294E8-B803-4A18-B6E7-C99CD835E2F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F6DC77-671D-47A8-BD9A-EEA4A0295360}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1725,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DA12D3-816C-496A-9B6D-6131D7E2F2DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAA05E1-4EA2-450B-B497-0F4F18C49B0A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2476,7 +2476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6537AE-C2E3-4D4C-B576-77B2BD76F82C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233FE510-9FA0-40F1-9073-59F286825EA2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
